--- a/biology/Botanique/Parc_Augarten/Parc_Augarten.xlsx
+++ b/biology/Botanique/Parc_Augarten/Parc_Augarten.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Parc Augarten (simplement Augarten en allemand) est un parc public de l'arrondissement de Leopoldstadt à Vienne, capitale de l'Autriche. Il abrite le Palais Augarten et la Manufacture de porcelaine de Vienne.
 </t>
@@ -511,7 +523,9 @@
           <t>Situation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Situé au nord du centre-ville de Vienne, le parc s'étend sur l'arrondissement de Leopoldstadt ainsi que dans sa partie nord sur celui de Brigittenau. Il couvre environ 52 hectares.
 </t>
@@ -542,7 +556,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Autrefois connu sous le nom Wolfsau, ces terrains furent rachetés par l'Empereur Ferdinand III du Saint-Empire au monastère de Klosterneuburg au XVIIe siècle. Le monarque fit aménager un jardin hollandais sur ces anciens bras du Danube, puis construire le château Fortuna qui fut terminé en 1659.
 Un jardin à la française fut par la suite aménagé, mais les invasions turques anéantirent ces travaux en 1683. Le Palais Augarten fut construit dix ans plus tard, et héberge désormais le chœur Wiener Sängerknaben.
